--- a/biology/Zoologie/Fissarena/Fissarena.xlsx
+++ b/biology/Zoologie/Fissarena/Fissarena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fissarena est un genre d'araignées aranéomorphes de la famille des Trachycosmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fissarena est un genre d'araignées aranéomorphes de la famille des Trachycosmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 8 à 10 mm et les femelles de 9 à 12 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 8 à 10 mm et les femelles de 9 à 12 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 14/01/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 14/01/2022) :
 Fissarena arcoona Platnick, 2002
 Fissarena barlee Platnick, 2002
 Fissarena barrow Platnick, 2002
@@ -612,9 +630,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Henschel, Davies et Dickman en 1995 dans les Clubionoidea. Il est placé dans les Trochanteriidae par Platnick en 2002[2] puis dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Henschel, Davies et Dickman en 1995 dans les Clubionoidea. Il est placé dans les Trochanteriidae par Platnick en 2002 puis dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Henschel, Davies &amp; Dickman, 1995 : « The slit spider (Araneae: Clubionoidea) that constructs fissures in the sand dunes of the Simpson Desert, central Australia. » Journal of Natural History, vol. 29, no 1, p. 137-145.</t>
         </is>
